--- a/publication/analyses/outputs/rmse_z/gdptlab_mean_rmse-z_by_z.xlsx
+++ b/publication/analyses/outputs/rmse_z/gdptlab_mean_rmse-z_by_z.xlsx
@@ -577,31 +577,31 @@
         <v>-1.62495009980039</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.627114258187173</v>
+        <v>-2.627113644252402</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.002974750027465022</v>
+        <v>-0.002974919819732357</v>
       </c>
       <c r="H2" t="n">
-        <v>-5.801494390651976e-05</v>
+        <v>-5.814752878399779e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.081063930316085</v>
+        <v>-1.081064252719905</v>
       </c>
       <c r="J2" t="n">
-        <v>1.761245269123399</v>
+        <v>1.761245387686386</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.01953272959363371</v>
+        <v>-0.01953272956688217</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.02036255520639137</v>
+        <v>-0.02036255520927486</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4914964880641078</v>
+        <v>0.4914964882204577</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.01543691579374855</v>
+        <v>-0.01543691585995371</v>
       </c>
       <c r="O2" t="n">
         <v>46.53253493013972</v>
@@ -625,10 +625,10 @@
         <v>2.039446191457267</v>
       </c>
       <c r="V2" t="n">
-        <v>2.627114258187173</v>
+        <v>2.627113644252402</v>
       </c>
       <c r="W2" t="n">
-        <v>2.139337450661036</v>
+        <v>2.139337709534526</v>
       </c>
       <c r="X2" t="n">
         <v>2505</v>

--- a/publication/analyses/outputs/rmse_z/gdptlab_mean_rmse-z_by_z.xlsx
+++ b/publication/analyses/outputs/rmse_z/gdptlab_mean_rmse-z_by_z.xlsx
@@ -577,31 +577,31 @@
         <v>-1.62495009980039</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.627113644252402</v>
+        <v>-2.627113946859019</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.002974919819732357</v>
+        <v>-0.002974823773264526</v>
       </c>
       <c r="H2" t="n">
-        <v>-5.814752878399779e-05</v>
+        <v>-5.807390803330106e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.081064252719905</v>
+        <v>-1.081064022239322</v>
       </c>
       <c r="J2" t="n">
-        <v>1.761245387686386</v>
+        <v>1.761245321998328</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.01953272956688217</v>
+        <v>-0.01953272959284959</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.02036255520927486</v>
+        <v>-0.02036255520666281</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4914964882204577</v>
+        <v>0.4914964881063937</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.01543691585995371</v>
+        <v>-0.01543691564736046</v>
       </c>
       <c r="O2" t="n">
         <v>46.53253493013972</v>
@@ -625,10 +625,10 @@
         <v>2.039446191457267</v>
       </c>
       <c r="V2" t="n">
-        <v>2.627113644252402</v>
+        <v>2.627113946859019</v>
       </c>
       <c r="W2" t="n">
-        <v>2.139337709534526</v>
+        <v>2.139337542969805</v>
       </c>
       <c r="X2" t="n">
         <v>2505</v>
